--- a/словарь для тп.xlsx
+++ b/словарь для тп.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="324" yWindow="516" windowWidth="14076" windowHeight="5244"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Лист1" sheetId="1" r:id="rId4"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>сигма</t>
   </si>
@@ -257,20 +260,72 @@
   </si>
   <si>
     <t>скам</t>
+  </si>
+  <si>
+    <t>обман, мошенничество</t>
+  </si>
+  <si>
+    <t>как дела, что делаешь</t>
+  </si>
+  <si>
+    <t>понятно</t>
+  </si>
+  <si>
+    <t>проверять</t>
+  </si>
+  <si>
+    <t>"жизненно", т.е. ситуация, с которой ответивший тоже столкнулся</t>
+  </si>
+  <si>
+    <t>брат, друг</t>
+  </si>
+  <si>
+    <t>форма психологического насилия, при которой человек заставляет сомневаться в собственных силах, адекватности суждений и воспоминаний другого человека</t>
+  </si>
+  <si>
+    <t>человек, который использует методы насилия, чтобы контролировать и подчинить другого человека</t>
+  </si>
+  <si>
+    <t>увлечение, при котором человек имитирует поведение какого-либо животного (бегает на четвереньках, имитирует движения, носит маску в виде животного)</t>
+  </si>
+  <si>
+    <t>очень смешно (от англ. Lol - laughing out loud)</t>
+  </si>
+  <si>
+    <t>жест, когда человек кладет палец на экран устройства и проводит в нужном направлении</t>
+  </si>
+  <si>
+    <t>провокация, как правило в негативном ключе</t>
+  </si>
+  <si>
+    <t>травля</t>
+  </si>
+  <si>
+    <t>травля в интернете</t>
+  </si>
+  <si>
+    <t>сильно напрягаться в учебе, усиленно что-то учить</t>
+  </si>
+  <si>
+    <t>смеяться или прикалываться над кем-то</t>
+  </si>
+  <si>
+    <t>жуткий, отталкивающий</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="2">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -281,36 +336,36 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -500,24 +555,29 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="24.0"/>
-    <col customWidth="1" min="2" max="2" width="159.13"/>
+    <col min="1" max="1" width="24" customWidth="1"/>
+    <col min="2" max="2" width="159.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -533,7 +593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -541,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -549,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -557,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -565,7 +625,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -573,7 +633,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -581,7 +641,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -589,7 +649,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -597,7 +657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -605,7 +665,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -613,7 +673,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -621,7 +681,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -629,277 +689,328 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="16">
+      <c r="B15" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18">
+      <c r="B17" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="B27" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="33">
+      <c r="B32" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="42">
+      <c r="B41" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43">
+      <c r="B42" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44">
+      <c r="B43" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="48">
+      <c r="B47" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56">
+      <c r="B55" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="63">
+      <c r="B62" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="64">
+      <c r="B63" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="65">
+      <c r="B64" s="2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="66">
+      <c r="B65" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="67">
+      <c r="B66" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="68">
+      <c r="B67" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
         <v>81</v>
       </c>
+      <c r="B68" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/словарь для тп.xlsx
+++ b/словарь для тп.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
   <si>
     <t>сигма</t>
   </si>
@@ -115,9 +115,6 @@
     <t>делулу</t>
   </si>
   <si>
-    <t>флекс</t>
-  </si>
-  <si>
     <t>гостинг</t>
   </si>
   <si>
@@ -289,9 +286,6 @@
     <t>увлечение, при котором человек имитирует поведение какого-либо животного (бегает на четвереньках, имитирует движения, носит маску в виде животного)</t>
   </si>
   <si>
-    <t>очень смешно (от англ. Lol - laughing out loud)</t>
-  </si>
-  <si>
     <t>жест, когда человек кладет палец на экран устройства и проводит в нужном направлении</t>
   </si>
   <si>
@@ -311,6 +305,72 @@
   </si>
   <si>
     <t>жуткий, отталкивающий</t>
+  </si>
+  <si>
+    <t>харизма</t>
+  </si>
+  <si>
+    <t>застрявший в своих фантазиях</t>
+  </si>
+  <si>
+    <t>ребенок, зависимый от планшета или телефона</t>
+  </si>
+  <si>
+    <t>очень смешно</t>
+  </si>
+  <si>
+    <t>ситуация, когда человек внезапно начинает игнорировать вас, блокирует, не отвечает на звонки и сообщения</t>
+  </si>
+  <si>
+    <t>подтверждение</t>
+  </si>
+  <si>
+    <t>исправлять, чинить</t>
+  </si>
+  <si>
+    <t>флексить</t>
+  </si>
+  <si>
+    <t>танцевать/развлекаться или хвастаться</t>
+  </si>
+  <si>
+    <t>человек или неиграбельный персонаж в игре, который ничем не выделяется, не имеет своего мнения и его действия будто предсказуемы</t>
+  </si>
+  <si>
+    <t>грин флаг - положительные признаки, ред флаг - предупреждающие негативные признаки</t>
+  </si>
+  <si>
+    <t>как человек - объект обожания и тайной влюбленности, как состояние - сильная влюбленность в кого-то</t>
+  </si>
+  <si>
+    <t>человек, неприятный в общении, склонный оскорблять и унижать собеседника</t>
+  </si>
+  <si>
+    <t>парень, который заботится о своей девушке, ухаживает за ней, дарит подарки и решает проблемы</t>
+  </si>
+  <si>
+    <t>чувство неловкости или стыда за чужие действия</t>
+  </si>
+  <si>
+    <t>взрослый мужчина, который выглядит старше своих лет, ведет неактивный образ жизни, с пивным пузом и имеет консервативные взгляды</t>
+  </si>
+  <si>
+    <t>худощавый парень, равнодушный к спорту, неспособный постоять за себя; с ними тяжело строить отношения</t>
+  </si>
+  <si>
+    <t>слово, передающее сильные эмоции, вызванные чем-то неприемлемым и зачастую аморальным</t>
+  </si>
+  <si>
+    <t>человек, который очень часто покупает что-то на вайлдберриз; используется как оскорбление</t>
+  </si>
+  <si>
+    <t>появиться</t>
+  </si>
+  <si>
+    <t>человек, который разделяет общепринятые вкусы, взгляды и интересы; зачастую используется как оскорбление</t>
+  </si>
+  <si>
+    <t>толстый человек; используется как оскорбление</t>
   </si>
 </sst>
 </file>
@@ -567,8 +627,8 @@
   </sheetPr>
   <dimension ref="A1:B68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -694,7 +754,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -702,7 +762,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -710,307 +770,368 @@
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="B18" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
+      <c r="B19" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>104</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/словарь для тп.xlsx
+++ b/словарь для тп.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>сигма</t>
   </si>
@@ -217,18 +217,12 @@
     <t>гоооооооооооол</t>
   </si>
   <si>
-    <t xml:space="preserve">кд/чд </t>
-  </si>
-  <si>
     <t>смарт асс кид</t>
   </si>
   <si>
     <t>нормис</t>
   </si>
   <si>
-    <t xml:space="preserve">опиум </t>
-  </si>
-  <si>
     <t>масик</t>
   </si>
   <si>
@@ -238,9 +232,6 @@
     <t>хорни</t>
   </si>
   <si>
-    <t xml:space="preserve">свайп </t>
-  </si>
-  <si>
     <t>лол</t>
   </si>
   <si>
@@ -371,6 +362,114 @@
   </si>
   <si>
     <t>толстый человек; используется как оскорбление</t>
+  </si>
+  <si>
+    <t>человек, поддерживающий Россию или придерживающийся традиционных взглядов на жизнь</t>
+  </si>
+  <si>
+    <t>человек, сказавший очевидную вещь</t>
+  </si>
+  <si>
+    <t>депрессивный подросток</t>
+  </si>
+  <si>
+    <t>девушка, которая пытается выделиться внешностью, но на деле выглядит стереотипно, придерживается темных тонов, яркого макияжа и пирсинга во внешнем виде</t>
+  </si>
+  <si>
+    <t>неформал, т.е. человек, который не придерживается общепринятых норм поведения и внешнего вида и выделяется</t>
+  </si>
+  <si>
+    <t>взрослый мужчина, который пытается быть на одной волне с молодежью</t>
+  </si>
+  <si>
+    <t>несерьезные отношения, "недоотношения"</t>
+  </si>
+  <si>
+    <t>выражение восхищения</t>
+  </si>
+  <si>
+    <t>человек, не следующий моде и не умеющий сочетать одежду</t>
+  </si>
+  <si>
+    <t>человек, стремящийся к самовыражению</t>
+  </si>
+  <si>
+    <t>персонаж и интернет-мем, представляющий собой черно-белые фото мускулистого мужчины</t>
+  </si>
+  <si>
+    <t>друг, приятель</t>
+  </si>
+  <si>
+    <t>оскорбление людей в облегающей одежде</t>
+  </si>
+  <si>
+    <t>типичный патриот</t>
+  </si>
+  <si>
+    <t>кд/чд</t>
+  </si>
+  <si>
+    <t>чересчур умный</t>
+  </si>
+  <si>
+    <t>муд</t>
+  </si>
+  <si>
+    <t>настроение</t>
+  </si>
+  <si>
+    <t>очень пошлый</t>
+  </si>
+  <si>
+    <t>свайп</t>
+  </si>
+  <si>
+    <t>чапалах</t>
+  </si>
+  <si>
+    <t>пощечина</t>
+  </si>
+  <si>
+    <t>дефолт</t>
+  </si>
+  <si>
+    <t>по умолчанию</t>
+  </si>
+  <si>
+    <t>фулл</t>
+  </si>
+  <si>
+    <t>просьба показать что-либо до конца или в полной форме</t>
+  </si>
+  <si>
+    <t>убежище</t>
+  </si>
+  <si>
+    <t>очень неприятный человек, может быть как внутренне, так и внешне</t>
+  </si>
+  <si>
+    <t>тарелочница</t>
+  </si>
+  <si>
+    <t>девушка, которая знакомится чтобы поесть и равлечься за чужой счет, а потом пропадает</t>
+  </si>
+  <si>
+    <t>найк про</t>
+  </si>
+  <si>
+    <t>женская фигура в облегающей одежде</t>
+  </si>
+  <si>
+    <t>плаки плаки</t>
+  </si>
+  <si>
+    <t>"поплачь"</t>
+  </si>
+  <si>
+    <t>трансформер</t>
+  </si>
+  <si>
+    <t>трансгендер</t>
   </si>
 </sst>
 </file>
@@ -386,8 +485,10 @@
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -399,7 +500,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -407,14 +508,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -625,10 +742,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -637,7 +754,7 @@
     <col min="2" max="2" width="159.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" ht="13.8" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -645,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" ht="27" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -653,7 +770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" ht="13.8" thickBot="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -661,7 +778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" ht="13.8" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -669,7 +786,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" ht="13.8" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -677,7 +794,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" ht="13.8" thickBot="1">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -685,7 +802,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" ht="13.8" thickBot="1">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -693,7 +810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" ht="13.8" thickBot="1">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -701,7 +818,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" ht="13.8" thickBot="1">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -709,7 +826,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" ht="13.8" thickBot="1">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -717,7 +834,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" ht="13.8" thickBot="1">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -725,7 +842,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" ht="13.8" thickBot="1">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -733,7 +850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" ht="13.8" thickBot="1">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -741,7 +858,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" ht="13.8" thickBot="1">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -749,385 +866,500 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" ht="13.8" thickBot="1">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.8" thickBot="1">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.8" thickBot="1">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.8" thickBot="1">
       <c r="A18" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.8" thickBot="1">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.8" thickBot="1">
       <c r="A20" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.8" thickBot="1">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.8" thickBot="1">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.8" thickBot="1">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="13.8" thickBot="1">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.8" thickBot="1">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.8" thickBot="1">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.8" thickBot="1">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="B27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.8" thickBot="1">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.8" thickBot="1">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.8" thickBot="1">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="B30" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="13.8" thickBot="1">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="B31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="13.8" thickBot="1">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="B32" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="13.8" thickBot="1">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="B33" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="13.8" thickBot="1">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="B34" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="13.8" thickBot="1">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="B35" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="13.8" thickBot="1">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="B36" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="13.8" thickBot="1">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="13.8" thickBot="1">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B38" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="13.8" thickBot="1">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="B39" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="13.8" thickBot="1">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="B40" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="13.8" thickBot="1">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="B41" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="13.8" thickBot="1">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="B42" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="13.8" thickBot="1">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="B43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="13.8" thickBot="1">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="B44" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="13.8" thickBot="1">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="B45" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="13.8" thickBot="1">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="B46" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="13.8" thickBot="1">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="B47" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="13.8" thickBot="1">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="B48" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="13.8" thickBot="1">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="B49" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="13.8" thickBot="1">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="B50" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="13.8" thickBot="1">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="13.8" thickBot="1">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="B52" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="13.8" thickBot="1">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="B53" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="13.8" thickBot="1">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="B54" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="13.8" thickBot="1">
       <c r="A55" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A56" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
-      <c r="A56" s="1" t="s">
+      <c r="B56" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A57" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
-      <c r="A57" s="1" t="s">
+      <c r="B57" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B57" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="1" t="s">
+      <c r="B59" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
-      <c r="A59" s="1" t="s">
+      <c r="B60" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
-      <c r="A60" s="1" t="s">
+      <c r="B61" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A62" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A63" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B60" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
-      <c r="A61" s="1" t="s">
+      <c r="B63" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A64" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
-      <c r="A62" s="1" t="s">
+      <c r="B64" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A65" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
-      <c r="A63" s="1" t="s">
+      <c r="B65" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A66" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="1" t="s">
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A67" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="1" t="s">
+      <c r="B67" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="13.8" thickBot="1">
+      <c r="A68" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="1" t="s">
+      <c r="B68" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>81</v>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A69" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A71" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A72" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A75" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A76" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>
